--- a/ImageryStatistics150m.xlsx
+++ b/ImageryStatistics150m.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Box\VerdeRiverWatershed\QRMPopFre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3A155C8-DB57-4A4B-B696-4DBB58A347AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B67F3-6146-4B2C-8667-B544D7897BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="ImageryAreas" sheetId="2" r:id="rId1"/>
     <sheet name="ImageryStatistics150m" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>Shadow</t>
   </si>
@@ -64,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -545,7 +558,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -999,19 +1012,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C53327-1833-493D-978F-B7886C8728DA}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2023</v>
       </c>
@@ -1033,56 +1045,8 @@
       <c r="H1">
         <v>2010</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1">
-        <v>2023</v>
-      </c>
-      <c r="L1">
-        <v>2021</v>
-      </c>
-      <c r="M1">
-        <v>2019</v>
-      </c>
-      <c r="N1">
-        <v>2017</v>
-      </c>
-      <c r="O1">
-        <v>2015</v>
-      </c>
-      <c r="P1">
-        <v>2013</v>
-      </c>
-      <c r="Q1">
-        <v>2010</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1">
-        <v>2023</v>
-      </c>
-      <c r="U1">
-        <v>2021</v>
-      </c>
-      <c r="V1">
-        <v>2019</v>
-      </c>
-      <c r="W1">
-        <v>2017</v>
-      </c>
-      <c r="X1">
-        <v>2015</v>
-      </c>
-      <c r="Y1">
-        <v>2013</v>
-      </c>
-      <c r="Z1">
-        <v>2010</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1107,56 +1071,8 @@
       <c r="H2">
         <v>275417</v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>346120.56</v>
-      </c>
-      <c r="L2">
-        <v>2426238</v>
-      </c>
-      <c r="M2">
-        <v>123850.44</v>
-      </c>
-      <c r="N2">
-        <v>227193</v>
-      </c>
-      <c r="O2">
-        <v>112601</v>
-      </c>
-      <c r="P2">
-        <v>48660</v>
-      </c>
-      <c r="Q2">
-        <v>78109</v>
-      </c>
-      <c r="S2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>396059.76</v>
-      </c>
-      <c r="U2">
-        <v>307950.12</v>
-      </c>
-      <c r="V2">
-        <v>50596.92</v>
-      </c>
-      <c r="W2">
-        <v>397216</v>
-      </c>
-      <c r="X2">
-        <v>59455</v>
-      </c>
-      <c r="Y2">
-        <v>48504</v>
-      </c>
-      <c r="Z2">
-        <v>158540</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1181,56 +1097,8 @@
       <c r="H3">
         <v>159637</v>
       </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>3197730.6</v>
-      </c>
-      <c r="L3">
-        <v>4173690.96</v>
-      </c>
-      <c r="M3">
-        <v>171513.36</v>
-      </c>
-      <c r="N3">
-        <v>437859</v>
-      </c>
-      <c r="O3">
-        <v>173904</v>
-      </c>
-      <c r="P3">
-        <v>195902</v>
-      </c>
-      <c r="Q3">
-        <v>158522</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>964584</v>
-      </c>
-      <c r="U3">
-        <v>200947.68</v>
-      </c>
-      <c r="V3">
-        <v>241652.52</v>
-      </c>
-      <c r="W3">
-        <v>628187</v>
-      </c>
-      <c r="X3">
-        <v>259173</v>
-      </c>
-      <c r="Y3">
-        <v>246311</v>
-      </c>
-      <c r="Z3">
-        <v>251756</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1255,56 +1123,8 @@
       <c r="H4">
         <v>596605</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>823249.44</v>
-      </c>
-      <c r="L4">
-        <v>617844.24</v>
-      </c>
-      <c r="M4">
-        <v>1570371.48</v>
-      </c>
-      <c r="N4">
-        <v>2332512</v>
-      </c>
-      <c r="O4">
-        <v>710975</v>
-      </c>
-      <c r="P4">
-        <v>664581</v>
-      </c>
-      <c r="Q4">
-        <v>519990</v>
-      </c>
-      <c r="S4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4">
-        <v>2121998.7599999998</v>
-      </c>
-      <c r="U4">
-        <v>596682.72</v>
-      </c>
-      <c r="V4">
-        <v>515085.48</v>
-      </c>
-      <c r="W4">
-        <v>2243577</v>
-      </c>
-      <c r="X4">
-        <v>598858</v>
-      </c>
-      <c r="Y4">
-        <v>533050</v>
-      </c>
-      <c r="Z4">
-        <v>574397</v>
-      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1329,56 +1149,8 @@
       <c r="H5">
         <v>570108</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>3437593.92</v>
-      </c>
-      <c r="L5">
-        <v>4627978.5599999996</v>
-      </c>
-      <c r="M5">
-        <v>568579.31999999995</v>
-      </c>
-      <c r="N5">
-        <v>1602575</v>
-      </c>
-      <c r="O5">
-        <v>363222</v>
-      </c>
-      <c r="P5">
-        <v>230443</v>
-      </c>
-      <c r="Q5">
-        <v>480659</v>
-      </c>
-      <c r="S5" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>2377545.48</v>
-      </c>
-      <c r="U5">
-        <v>403147.44</v>
-      </c>
-      <c r="V5">
-        <v>776693.15999999992</v>
-      </c>
-      <c r="W5">
-        <v>1758620</v>
-      </c>
-      <c r="X5">
-        <v>579349</v>
-      </c>
-      <c r="Y5">
-        <v>600653</v>
-      </c>
-      <c r="Z5">
-        <v>622245</v>
-      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1403,56 +1175,8 @@
       <c r="H6">
         <v>402500</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>1543874.04</v>
-      </c>
-      <c r="L6">
-        <v>2577006</v>
-      </c>
-      <c r="M6">
-        <v>414806.39999999997</v>
-      </c>
-      <c r="N6">
-        <v>1343292</v>
-      </c>
-      <c r="O6">
-        <v>276364</v>
-      </c>
-      <c r="P6">
-        <v>308978</v>
-      </c>
-      <c r="Q6">
-        <v>321866</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>2370307.6799999997</v>
-      </c>
-      <c r="U6">
-        <v>408843</v>
-      </c>
-      <c r="V6">
-        <v>465890.04</v>
-      </c>
-      <c r="W6">
-        <v>1238736</v>
-      </c>
-      <c r="X6">
-        <v>493055</v>
-      </c>
-      <c r="Y6">
-        <v>539092</v>
-      </c>
-      <c r="Z6">
-        <v>587612</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1476,54 +1200,6 @@
       </c>
       <c r="H7">
         <v>1720378</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>22645144.800000001</v>
-      </c>
-      <c r="L7">
-        <v>17806587.84</v>
-      </c>
-      <c r="M7">
-        <v>5208885.72</v>
-      </c>
-      <c r="N7">
-        <v>4397045</v>
-      </c>
-      <c r="O7">
-        <v>1417820</v>
-      </c>
-      <c r="P7">
-        <v>1590761</v>
-      </c>
-      <c r="Q7">
-        <v>1479841</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>7652806.5599999996</v>
-      </c>
-      <c r="U7">
-        <v>1955370.96</v>
-      </c>
-      <c r="V7">
-        <v>1823210.28</v>
-      </c>
-      <c r="W7">
-        <v>4765716</v>
-      </c>
-      <c r="X7">
-        <v>2012420</v>
-      </c>
-      <c r="Y7">
-        <v>2006734</v>
-      </c>
-      <c r="Z7">
-        <v>1779484</v>
       </c>
     </row>
   </sheetData>
@@ -2322,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:Z14" si="8">T3/T$8*100</f>
+        <f t="shared" ref="T10:Z13" si="8">T3/T$8*100</f>
         <v>6.0729436827741177</v>
       </c>
       <c r="U10">

--- a/ImageryStatistics150m.xlsx
+++ b/ImageryStatistics150m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758B67F3-6146-4B2C-8667-B544D7897BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD58C0-91D0-49BE-826A-481FBF211D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageryAreas" sheetId="2" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C53327-1833-493D-978F-B7886C8728DA}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C91333-541E-40B9-8965-F20DDBC03510}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ImageryStatistics150m.xlsx
+++ b/ImageryStatistics150m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD58C0-91D0-49BE-826A-481FBF211D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ACE2B9-BEED-4FD6-8E6B-DF2CF69BC45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ImageryAreas" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="13">
   <si>
     <t>Shadow</t>
   </si>
@@ -71,13 +71,17 @@
   <si>
     <t>Area in m2</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -556,9 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1012,195 +1017,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C53327-1833-493D-978F-B7886C8728DA}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2023</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
-        <v>2015</v>
-      </c>
-      <c r="G1">
-        <v>2013</v>
-      </c>
-      <c r="H1">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>185816.88</v>
       </c>
       <c r="C2">
+        <v>916767.36</v>
+      </c>
+      <c r="D2">
+        <v>2286460.7999999998</v>
+      </c>
+      <c r="E2">
+        <v>3407203.44</v>
+      </c>
+      <c r="F2">
+        <v>1768408.5599999998</v>
+      </c>
+      <c r="G2">
+        <v>6325887.2400000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
         <v>116051.04</v>
-      </c>
-      <c r="D2">
-        <v>116051.04</v>
-      </c>
-      <c r="E2">
-        <v>227151</v>
-      </c>
-      <c r="F2">
-        <v>84752</v>
-      </c>
-      <c r="G2">
-        <v>32626</v>
-      </c>
-      <c r="H2">
-        <v>275417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>916767.36</v>
       </c>
       <c r="C3">
         <v>143002.07999999999</v>
       </c>
       <c r="D3">
+        <v>824283</v>
+      </c>
+      <c r="E3">
+        <v>399762.72</v>
+      </c>
+      <c r="F3">
+        <v>566071.19999999995</v>
+      </c>
+      <c r="G3">
+        <v>1674427.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>116051.04</v>
+      </c>
+      <c r="C4">
         <v>143002.07999999999</v>
-      </c>
-      <c r="E3">
-        <v>437912</v>
-      </c>
-      <c r="F3">
-        <v>171199</v>
-      </c>
-      <c r="G3">
-        <v>179303</v>
-      </c>
-      <c r="H3">
-        <v>159637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>2286460.7999999998</v>
-      </c>
-      <c r="C4">
-        <v>824283</v>
       </c>
       <c r="D4">
         <v>824283</v>
       </c>
       <c r="E4">
+        <v>399762.72</v>
+      </c>
+      <c r="F4">
+        <v>566071.19999999995</v>
+      </c>
+      <c r="G4">
+        <v>1674427.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>227151</v>
+      </c>
+      <c r="C5">
+        <v>437912</v>
+      </c>
+      <c r="D5">
         <v>2333244</v>
-      </c>
-      <c r="F4">
-        <v>727831</v>
-      </c>
-      <c r="G4">
-        <v>705500</v>
-      </c>
-      <c r="H4">
-        <v>596605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3407203.44</v>
-      </c>
-      <c r="C5">
-        <v>399762.72</v>
-      </c>
-      <c r="D5">
-        <v>399762.72</v>
       </c>
       <c r="E5">
         <v>1602368</v>
       </c>
       <c r="F5">
+        <v>1343580</v>
+      </c>
+      <c r="G5">
+        <v>4396728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>84752</v>
+      </c>
+      <c r="C6">
+        <v>171199</v>
+      </c>
+      <c r="D6">
+        <v>727831</v>
+      </c>
+      <c r="E6">
         <v>397806</v>
-      </c>
-      <c r="G5">
-        <v>477596</v>
-      </c>
-      <c r="H5">
-        <v>570108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1768408.5599999998</v>
-      </c>
-      <c r="C6">
-        <v>566071.19999999995</v>
-      </c>
-      <c r="D6">
-        <v>566071.19999999995</v>
-      </c>
-      <c r="E6">
-        <v>1343580</v>
       </c>
       <c r="F6">
         <v>487356</v>
       </c>
       <c r="G6">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7">
+        <v>32626</v>
+      </c>
+      <c r="C7">
+        <v>179303</v>
+      </c>
+      <c r="D7">
+        <v>705500</v>
+      </c>
+      <c r="E7">
+        <v>477596</v>
+      </c>
+      <c r="F7">
         <v>498590</v>
-      </c>
-      <c r="H6">
-        <v>402500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>6325887.2400000002</v>
-      </c>
-      <c r="C7">
-        <v>1674427.68</v>
-      </c>
-      <c r="D7">
-        <v>1674427.68</v>
-      </c>
-      <c r="E7">
-        <v>4396728</v>
-      </c>
-      <c r="F7">
-        <v>1858940</v>
       </c>
       <c r="G7">
         <v>1831030</v>
       </c>
-      <c r="H7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <v>275417</v>
+      </c>
+      <c r="C8">
+        <v>159637</v>
+      </c>
+      <c r="D8">
+        <v>596605</v>
+      </c>
+      <c r="E8">
+        <v>570108</v>
+      </c>
+      <c r="F8">
+        <v>402500</v>
+      </c>
+      <c r="G8">
         <v>1720378</v>
       </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1211,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C91333-541E-40B9-8965-F20DDBC03510}">
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/ImageryStatistics150m.xlsx
+++ b/ImageryStatistics150m.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ACE2B9-BEED-4FD6-8E6B-DF2CF69BC45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3877C2-9432-4DE2-8BF7-3C8EBDB22946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1748B77E-CCA6-4BE5-A087-4D388D1254D5}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -563,7 +563,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1025,7 +1025,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
